--- a/file/Bunga Bank.xlsx
+++ b/file/Bunga Bank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhammad.huda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seagroup-my.sharepoint.com/personal/laras_fitria_seabank_co_id/Documents/Documents/01. WORK/ERFAN/python/python_scripts/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2892C636-DACA-43F3-9D50-41A45DE858A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2892C636-DACA-43F3-9D50-41A45DE858A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBC3DE48-B2E3-4501-9136-F3BAF8BCDABF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1CBA5CE4-DB39-4226-AD0C-65F1AF72541C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{1CBA5CE4-DB39-4226-AD0C-65F1AF72541C}"/>
   </bookViews>
   <sheets>
     <sheet name="Annuity" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,7 +362,31 @@
     <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -373,30 +397,6 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -716,11 +716,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD233526-C16B-45FF-A867-04349CD09CAB}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -731,28 +731,28 @@
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" ht="21">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="28">
         <v>100000000</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -760,7 +760,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
         <v>11</v>
@@ -773,7 +773,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="21" t="s">
         <v>13</v>
@@ -787,7 +787,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="21" t="s">
         <v>14</v>
@@ -800,12 +800,12 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <f>SUM(D12:D131)</f>
         <v>179172887.97267053</v>
       </c>
@@ -814,21 +814,21 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
@@ -836,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -853,7 +853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickTop="1">
+    <row r="11" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>0</v>
       </c>
@@ -865,7 +865,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -878,7 +878,7 @@
         <v>1083333.3333333333</v>
       </c>
       <c r="D12" s="11">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" ref="D12:D43" si="0">($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
         <v>1493107.3997722517</v>
       </c>
       <c r="E12" s="11">
@@ -887,2502 +887,2502 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>2</v>
       </c>
       <c r="B13" s="8">
-        <f t="shared" ref="B13:B76" si="0">D13-C13</f>
+        <f t="shared" ref="B13:B76" si="1">D13-C13</f>
         <v>414213.28549200669</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" ref="C13:C76" si="1">E12*$C$6*(30/360)</f>
+        <f t="shared" ref="C13:C76" si="2">E12*$C$6*(30/360)</f>
         <v>1078894.114280245</v>
       </c>
       <c r="D13" s="8">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:E76" si="2">E12-B13</f>
+        <f t="shared" ref="E13:E76" si="3">E12-B13</f>
         <v>99176012.648069084</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>3</v>
       </c>
       <c r="B14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>418700.59608483664</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1074406.8036874151</v>
       </c>
       <c r="D14" s="8">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98757312.051984251</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>4</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>423236.51920908899</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1069870.8805631627</v>
       </c>
       <c r="D15" s="8">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98334075.532775164</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>5</v>
       </c>
       <c r="B16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>427821.5815005207</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1065285.818271731</v>
       </c>
       <c r="D16" s="8">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97906253.951274648</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>6</v>
       </c>
       <c r="B17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>432456.3153001098</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1060651.0844721419</v>
       </c>
       <c r="D17" s="8">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97473797.635974541</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>7</v>
       </c>
       <c r="B18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>437141.25871586078</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1055966.1410563909</v>
       </c>
       <c r="D18" s="8">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97036656.377258673</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>8</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>441876.95568528282</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1051230.4440869689</v>
       </c>
       <c r="D19" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96594779.421573386</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>446663.95603854</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1046443.4437337117</v>
       </c>
       <c r="D20" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96148115.465534851</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>10</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>451502.81556229084</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1041604.5842099609</v>
       </c>
       <c r="D21" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95696612.649972558</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>11</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>456394.09606421564</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1036713.3037080361</v>
       </c>
       <c r="D22" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95240218.553908348</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>12</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>461338.36543824454</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1031769.0343340072</v>
       </c>
       <c r="D23" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94778880.18847011</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>13</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>466336.1977304921</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1026771.2020417596</v>
       </c>
       <c r="D24" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94312543.990739614</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>14</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>471388.17320590583</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1021719.2265663459</v>
       </c>
       <c r="D25" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93841155.817533702</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>15</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>476494.87841563672</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1016612.521356615</v>
       </c>
       <c r="D26" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93364660.939118057</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>16</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>481656.90626513935</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1011450.4935071124</v>
       </c>
       <c r="D27" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92883004.032852918</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>17</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>486874.85608301184</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1006232.5436892399</v>
       </c>
       <c r="D28" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92396129.176769912</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>18</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>492149.33369057765</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000958.0660816741</v>
       </c>
       <c r="D29" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91903979.843079329</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>19</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>497480.95147222572</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>995626.44830002601</v>
       </c>
       <c r="D30" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91406498.891607106</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>20</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>502870.32844650804</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>990237.07132574369</v>
       </c>
       <c r="D31" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90903628.563160598</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>21</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>508318.09033801185</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>984789.30943423987</v>
       </c>
       <c r="D32" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90395310.472822592</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>22</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>513824.86965000699</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>979282.53012224473</v>
       </c>
       <c r="D33" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89881485.603172585</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>23</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>519391.30573788204</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>973716.09403436969</v>
       </c>
       <c r="D34" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89362094.297434703</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>24</v>
       </c>
       <c r="B35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>525018.04488337575</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>968089.35488887597</v>
       </c>
       <c r="D35" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88837076.252551332</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>25</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>530705.74036961235</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>962401.65940263937</v>
       </c>
       <c r="D36" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88306370.512181714</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>26</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>536455.05255694978</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>956652.34721530194</v>
       </c>
       <c r="D37" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87769915.459624767</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>27</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>542266.64895965019</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>950840.75081260153</v>
       </c>
       <c r="D38" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87227648.810665116</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>28</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>548141.20432337956</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>944966.19544887217</v>
       </c>
       <c r="D39" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86679507.606341735</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>29</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>554079.40070354962</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>939027.99906870211</v>
       </c>
       <c r="D40" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86125428.205638185</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>30</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>560081.92754450464</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>933025.47222774709</v>
       </c>
       <c r="D41" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85565346.278093681</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>31</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>566149.48175957019</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>926957.91801268153</v>
       </c>
       <c r="D42" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84999196.796334118</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>32</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>572282.76781196543</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>920824.63196028629</v>
       </c>
       <c r="D43" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="0"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84426914.028522149</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>33</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>578482.4977965951</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>914624.90197565663</v>
       </c>
       <c r="D44" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" ref="D44:D75" si="4">($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
         <v>1493107.3997722517</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83848431.530725554</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>34</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>584749.39152272488</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>908358.00824952684</v>
       </c>
       <c r="D45" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83263682.139202833</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>35</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>591084.17659755435</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>902023.22317469737</v>
       </c>
       <c r="D46" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82672597.962605283</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>36</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>597487.58851069456</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>895619.81126155716</v>
       </c>
       <c r="D47" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82075110.374094591</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>37</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>603960.37071956042</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>889147.0290526913</v>
       </c>
       <c r="D48" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81471150.003375024</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>38</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>610503.27473568893</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>882604.12503656279</v>
       </c>
       <c r="D49" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80860646.728639334</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>39</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>617117.06021199236</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>875990.33956025937</v>
       </c>
       <c r="D50" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80243529.668427348</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>40</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>623802.49503095553</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>869304.9047412962</v>
       </c>
       <c r="D51" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79619727.173396394</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>41</v>
       </c>
       <c r="B52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>630560.35539379076</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>862547.04437846097</v>
       </c>
       <c r="D52" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78989166.818002596</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>42</v>
       </c>
       <c r="B53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>637391.42591055692</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>855715.9738616948</v>
       </c>
       <c r="D53" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78351775.392092034</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>43</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>644296.49969125469</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>848810.90008099703</v>
       </c>
       <c r="D54" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77707478.892400786</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>44</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>651276.37843790988</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>841831.02133434184</v>
       </c>
       <c r="D55" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77056202.51396288</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>45</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>658331.87253765389</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>834775.52723459783</v>
       </c>
       <c r="D56" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76397870.641425222</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>46</v>
       </c>
       <c r="B57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>665463.80115681188</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>827643.59861543984</v>
       </c>
       <c r="D57" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75732406.840268403</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>47</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>672672.99233601068</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>820434.40743624105</v>
       </c>
       <c r="D58" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75059733.847932398</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>48</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>679960.28308631736</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>813147.11668593436</v>
       </c>
       <c r="D59" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74379773.564846084</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>49</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>687326.51948641916</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>805780.88028583257</v>
       </c>
       <c r="D60" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73692447.045359671</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>50</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>694772.55678085529</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>798334.84299139644</v>
       </c>
       <c r="D61" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72997674.488578811</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>51</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>702299.25947931467</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>790808.14029293705</v>
       </c>
       <c r="D62" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72295375.229099497</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>52</v>
       </c>
       <c r="B63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>709907.50145700725</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>783199.89831524447</v>
       </c>
       <c r="D63" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71585467.727642491</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>53</v>
       </c>
       <c r="B64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>717598.16605612473</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>775509.233716127</v>
       </c>
       <c r="D64" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70867869.561586365</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>54</v>
       </c>
       <c r="B65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>725372.14618839941</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>767735.25358385232</v>
       </c>
       <c r="D65" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70142497.415397972</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>55</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>733230.3444387737</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>759877.05533347803</v>
       </c>
       <c r="D66" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69409267.070959195</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>56</v>
       </c>
       <c r="B67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>741173.6731701938</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>751933.72660205793</v>
       </c>
       <c r="D67" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68668093.397789001</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>57</v>
       </c>
       <c r="B68" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>749203.05462953751</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>743904.34514271421</v>
       </c>
       <c r="D68" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67918890.343159467</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>58</v>
       </c>
       <c r="B69" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>757319.42105469084</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>735787.97871756088</v>
       </c>
       <c r="D69" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67161570.922104776</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>59</v>
       </c>
       <c r="B70" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>765523.7147827833</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>727583.68498946843</v>
       </c>
       <c r="D70" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66396047.207321994</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>60</v>
       </c>
       <c r="B71" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>773816.88835959672</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>719290.511412655</v>
       </c>
       <c r="D71" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65622230.318962395</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>61</v>
       </c>
       <c r="B72" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>782199.90465015918</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>710907.49512209254</v>
       </c>
       <c r="D72" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64840030.414312236</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>62</v>
       </c>
       <c r="B73" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>790673.73695053591</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>702433.66282171581</v>
       </c>
       <c r="D73" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64049356.677361697</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>63</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>799239.36910083331</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>693868.03067141841</v>
       </c>
       <c r="D74" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63250117.308260866</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>64</v>
       </c>
       <c r="B75" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>807897.79559942568</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>685209.60417282605</v>
       </c>
       <c r="D75" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="4"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62442219.512661442</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>65</v>
       </c>
       <c r="B76" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>816650.02171841939</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>676457.37805383233</v>
       </c>
       <c r="D76" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" ref="D76:D107" si="5">($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
         <v>1493107.3997722517</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61625569.490943022</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>66</v>
       </c>
       <c r="B77" s="4">
-        <f t="shared" ref="B77:B131" si="3">D77-C77</f>
+        <f t="shared" ref="B77:B131" si="6">D77-C77</f>
         <v>825497.06362036895</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" ref="C77:C131" si="4">E76*$C$6*(30/360)</f>
+        <f t="shared" ref="C77:C131" si="7">E76*$C$6*(30/360)</f>
         <v>667610.33615188277</v>
       </c>
       <c r="D77" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" ref="E77:E131" si="5">E76-B77</f>
+        <f t="shared" ref="E77:E131" si="8">E76-B77</f>
         <v>60800072.427322656</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>67</v>
       </c>
       <c r="B78" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>834439.94847625634</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>658667.45129599539</v>
       </c>
       <c r="D78" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>59965632.478846401</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>68</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>843479.71458474908</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>649627.68518750265</v>
       </c>
       <c r="D79" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>59122152.764261656</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>69</v>
       </c>
       <c r="B80" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>852617.41149275051</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>640489.98827950121</v>
       </c>
       <c r="D80" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>58269535.352768905</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>70</v>
       </c>
       <c r="B81" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>861854.10011725524</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>631253.29965499649</v>
       </c>
       <c r="D81" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>57407681.252651647</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>71</v>
       </c>
       <c r="B82" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>871190.85286852554</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>621916.54690372618</v>
       </c>
       <c r="D82" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>56536490.39978312</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>72</v>
       </c>
       <c r="B83" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>880628.75377460127</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>612478.64599765046</v>
       </c>
       <c r="D83" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>55655861.646008521</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>73</v>
       </c>
       <c r="B84" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>890168.8986071595</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>602938.50116509222</v>
       </c>
       <c r="D84" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>54765692.747401364</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>74</v>
       </c>
       <c r="B85" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>899812.39500873699</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>593295.00476351473</v>
       </c>
       <c r="D85" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>53865880.352392629</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>75</v>
       </c>
       <c r="B86" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>909560.36262133159</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>583547.03715092014</v>
       </c>
       <c r="D86" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>52956319.989771299</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>76</v>
       </c>
       <c r="B87" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>919413.93321639602</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>573693.4665558557</v>
       </c>
       <c r="D87" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>52036906.056554906</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>77</v>
       </c>
       <c r="B88" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>929374.25082624028</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>563733.14894601144</v>
       </c>
       <c r="D88" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>51107531.805728666</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>78</v>
       </c>
       <c r="B89" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>939442.4718768578</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>553664.92789539392</v>
       </c>
       <c r="D89" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50168089.333851807</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>79</v>
       </c>
       <c r="B90" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>949619.76532219048</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>543487.63445006125</v>
       </c>
       <c r="D90" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>49218469.568529613</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>80</v>
       </c>
       <c r="B91" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>959907.31277984753</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>533200.08699240419</v>
       </c>
       <c r="D91" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>48258562.255749762</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>81</v>
       </c>
       <c r="B92" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>970306.30866829597</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>522801.09110395575</v>
       </c>
       <c r="D92" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>47288255.947081469</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>82</v>
       </c>
       <c r="B93" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>980817.96034553577</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>512289.43942671595</v>
       </c>
       <c r="D93" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46307437.986735933</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>83</v>
       </c>
       <c r="B94" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>991443.48824927909</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>501663.91152297263</v>
       </c>
       <c r="D94" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>45315994.498486653</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>84</v>
       </c>
       <c r="B95" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1002184.1260386463</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>490923.2737336054</v>
       </c>
       <c r="D95" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44313810.372448005</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>85</v>
       </c>
       <c r="B96" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1013041.1207373984</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>480066.27903485333</v>
       </c>
       <c r="D96" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>43300769.251710609</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>86</v>
       </c>
       <c r="B97" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1024015.7328787202</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>469091.66689353163</v>
       </c>
       <c r="D97" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>42276753.518831886</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>87</v>
       </c>
       <c r="B98" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1035109.236651573</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>457998.16312067874</v>
       </c>
       <c r="D98" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41241644.282180317</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>88</v>
       </c>
       <c r="B99" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1046322.9200486316</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>446784.47972362011</v>
       </c>
       <c r="D99" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40195321.362131685</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>89</v>
       </c>
       <c r="B100" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1057658.0850158252</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>435449.31475642655</v>
       </c>
       <c r="D100" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>39137663.277115859</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>90</v>
       </c>
       <c r="B101" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1069116.0476034966</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>423991.35216875514</v>
       </c>
       <c r="D101" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>38068547.229512364</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
         <v>91</v>
       </c>
       <c r="B102" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1080698.1381192012</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>412409.26165305061</v>
       </c>
       <c r="D102" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>36987849.091393165</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>92</v>
       </c>
       <c r="B103" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1092405.7012821592</v>
       </c>
       <c r="C103" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>400701.69849009259</v>
       </c>
       <c r="D103" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>35895443.390111007</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>93</v>
       </c>
       <c r="B104" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1104240.0963793825</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>388867.30339286925</v>
       </c>
       <c r="D104" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>34791203.293731622</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>94</v>
       </c>
       <c r="B105" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1116202.6974234926</v>
       </c>
       <c r="C105" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>376904.70234875922</v>
       </c>
       <c r="D105" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>33675000.596308127</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>95</v>
       </c>
       <c r="B106" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1128294.893312247</v>
       </c>
       <c r="C106" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>364812.50646000472</v>
       </c>
       <c r="D106" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>32546705.702995881</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>96</v>
       </c>
       <c r="B107" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1140518.0879897964</v>
       </c>
       <c r="C107" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>352589.31178245536</v>
       </c>
       <c r="D107" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="5"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>31406187.615006085</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>97</v>
       </c>
       <c r="B108" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1152873.7006096859</v>
       </c>
       <c r="C108" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>340233.69916256593</v>
       </c>
       <c r="D108" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" ref="D108:D131" si="9">($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
         <v>1493107.3997722517</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>30253313.914396398</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>98</v>
       </c>
       <c r="B109" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1165363.165699624</v>
       </c>
       <c r="C109" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>327744.23407262762</v>
       </c>
       <c r="D109" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29087950.748696774</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>99</v>
       </c>
       <c r="B110" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1177987.9333280367</v>
       </c>
       <c r="C110" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>315119.46644421504</v>
       </c>
       <c r="D110" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>27909962.815368738</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>100</v>
       </c>
       <c r="B111" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1190749.4692724238</v>
       </c>
       <c r="C111" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>302357.93049982795</v>
       </c>
       <c r="D111" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>26719213.346096314</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>101</v>
       </c>
       <c r="B112" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1203649.2551895417</v>
       </c>
       <c r="C112" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>289458.14458271005</v>
       </c>
       <c r="D112" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>25515564.090906773</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>102</v>
       </c>
       <c r="B113" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1216688.7887874283</v>
       </c>
       <c r="C113" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>276418.61098482338</v>
       </c>
       <c r="D113" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24298875.302119344</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>103</v>
       </c>
       <c r="B114" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1229869.5839992922</v>
       </c>
       <c r="C114" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>263237.81577295956</v>
       </c>
       <c r="D114" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>23069005.718120053</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>104</v>
       </c>
       <c r="B115" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1243193.1711592844</v>
       </c>
       <c r="C115" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>249914.22861296724</v>
       </c>
       <c r="D115" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21825812.546960767</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>105</v>
       </c>
       <c r="B116" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1256661.0971801768</v>
       </c>
       <c r="C116" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>236446.30259207499</v>
       </c>
       <c r="D116" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20569151.449780591</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>106</v>
       </c>
       <c r="B117" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1270274.9257329619</v>
       </c>
       <c r="C117" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>222832.47403928975</v>
       </c>
       <c r="D117" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E117" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19298876.524047628</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>107</v>
       </c>
       <c r="B118" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1284036.2374284025</v>
       </c>
       <c r="C118" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>209071.16234384931</v>
       </c>
       <c r="D118" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E118" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18014840.286619224</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>108</v>
       </c>
       <c r="B119" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1297946.6300005435</v>
       </c>
       <c r="C119" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>195160.76977170823</v>
       </c>
       <c r="D119" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E119" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16716893.656618681</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>109</v>
       </c>
       <c r="B120" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1312007.718492216</v>
       </c>
       <c r="C120" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>181099.6812800357</v>
       </c>
       <c r="D120" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E120" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15404885.938126465</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>110</v>
       </c>
       <c r="B121" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1326221.1354425484</v>
       </c>
       <c r="C121" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>166886.26432970338</v>
       </c>
       <c r="D121" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E121" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14078664.802683916</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>111</v>
       </c>
       <c r="B122" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1340588.5310765093</v>
       </c>
       <c r="C122" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>152518.86869574242</v>
       </c>
       <c r="D122" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E122" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12738076.271607406</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>112</v>
       </c>
       <c r="B123" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1355111.5734965049</v>
       </c>
       <c r="C123" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>137995.82627574689</v>
       </c>
       <c r="D123" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E123" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11382964.698110901</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>113</v>
       </c>
       <c r="B124" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1369791.9488760503</v>
       </c>
       <c r="C124" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>123315.45089620142</v>
       </c>
       <c r="D124" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E124" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10013172.749234851</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>114</v>
       </c>
       <c r="B125" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1384631.3616555408</v>
       </c>
       <c r="C125" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>108476.0381167109</v>
       </c>
       <c r="D125" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E125" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8628541.3875793107</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
         <v>115</v>
       </c>
       <c r="B126" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1399631.5347401425</v>
       </c>
       <c r="C126" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>93475.865032109199</v>
       </c>
       <c r="D126" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E126" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7228909.8528391682</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>116</v>
       </c>
       <c r="B127" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1414794.2096998275</v>
       </c>
       <c r="C127" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>78313.190072424317</v>
       </c>
       <c r="D127" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E127" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5814115.6431393409</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>117</v>
       </c>
       <c r="B128" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1430121.1469715755</v>
       </c>
       <c r="C128" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>62986.252800676193</v>
       </c>
       <c r="D128" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E128" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4383994.4961677659</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>118</v>
       </c>
       <c r="B129" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1445614.1260637676</v>
       </c>
       <c r="C129" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>47493.273708484136</v>
       </c>
       <c r="D129" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E129" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2938380.3701039981</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>119</v>
       </c>
       <c r="B130" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1461274.9457627917</v>
       </c>
       <c r="C130" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>31832.45400945998</v>
       </c>
       <c r="D130" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E130" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1477105.4243412064</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>120</v>
       </c>
       <c r="B131" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1477105.4243418886</v>
       </c>
       <c r="C131" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16001.975430363071</v>
       </c>
       <c r="D131" s="4">
-        <f>($C$3*($C$6/12))/((1-(1+($C$6/12))^(-$C$5)))</f>
+        <f t="shared" si="9"/>
         <v>1493107.3997722517</v>
       </c>
       <c r="E131" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-6.8219378590583801E-7</v>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFD9FC8-12FF-4071-BCE3-E017503F36EB}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -3414,28 +3414,28 @@
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" ht="21">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="28">
         <v>100000000</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
         <v>11</v>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="21" t="s">
         <v>13</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="21" t="s">
         <v>14</v>
@@ -3483,12 +3483,12 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <f>SUM(D12:D131)</f>
         <v>165541666.66666675</v>
       </c>
@@ -3497,21 +3497,21 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickTop="1">
+    <row r="11" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>0</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>98333333.333333343</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>3</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>97500000.000000015</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>4</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>96666666.666666687</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>5</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>95833333.333333358</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>6</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>95000000.00000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>7</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>94166666.666666701</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>8</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>93333333.333333373</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>9</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>92500000.000000045</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>10</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>91666666.666666716</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>11</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>90833333.333333388</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>12</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>90000000.00000006</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>13</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>89166666.666666731</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>14</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>88333333.333333403</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>15</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>87500000.000000075</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>16</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>86666666.666666746</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>17</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>85833333.333333418</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>18</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>85000000.000000089</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>19</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>84166666.666666761</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>20</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>83333333.333333433</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>21</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>82500000.000000104</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>22</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>81666666.666666776</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>23</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>80833333.333333448</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>24</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>80000000.000000119</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>25</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>79166666.666666791</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>26</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>78333333.333333462</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>27</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>77500000.000000134</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>28</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>76666666.666666806</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>29</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>75833333.333333477</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>30</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>75000000.000000149</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>31</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>74166666.666666821</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>32</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>73333333.333333492</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>33</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>72500000.000000164</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>34</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>71666666.666666836</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>35</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>70833333.333333507</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>36</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>70000000.000000179</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>37</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>69166666.66666685</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>38</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>68333333.333333522</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>39</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>67500000.000000194</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>40</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>66666666.666666858</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>41</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>65833333.333333522</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>42</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>65000000.000000186</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>43</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>64166666.66666685</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>44</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>63333333.333333515</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>45</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>62500000.000000179</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>46</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>61666666.666666843</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>47</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>60833333.333333507</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>48</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>60000000.000000171</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>49</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>59166666.666666836</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>50</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>58333333.3333335</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>51</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>57500000.000000164</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>52</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>56666666.666666828</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>53</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>55833333.333333492</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>54</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>55000000.000000156</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>55</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>54166666.666666821</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>56</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>53333333.333333485</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>57</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>52500000.000000149</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>58</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>51666666.666666813</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>59</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>50833333.333333477</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>60</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>50000000.000000142</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>61</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>49166666.666666806</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>62</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>48333333.33333347</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>63</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>47500000.000000134</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>64</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>46666666.666666798</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>65</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>45833333.333333462</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>66</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>45000000.000000127</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>67</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>44166666.666666791</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>68</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>43333333.333333455</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>69</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>42500000.000000119</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>70</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>41666666.666666783</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>71</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>40833333.333333448</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>72</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>40000000.000000112</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>73</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>39166666.666666776</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>74</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>38333333.33333344</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>75</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>37500000.000000104</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>76</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>36666666.666666768</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>77</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>35833333.333333433</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>78</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>35000000.000000097</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>79</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>34166666.666666761</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>80</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>33333333.333333429</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>81</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>32500000.000000097</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>82</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>31666666.666666765</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>83</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>30833333.333333433</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>84</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>30000000.000000101</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>85</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>29166666.666666768</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>86</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>28333333.333333436</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>87</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>27500000.000000104</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>88</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>26666666.666666772</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>89</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>25833333.33333344</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>90</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>25000000.000000108</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
         <v>91</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>24166666.666666776</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>92</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>23333333.333333444</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>93</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>22500000.000000112</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>94</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>21666666.66666678</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>95</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>20833333.333333448</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>96</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>20000000.000000115</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>97</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>19166666.666666783</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>98</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>18333333.333333451</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>99</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>17500000.000000119</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>100</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>16666666.666666785</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>101</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>15833333.333333451</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>102</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>15000000.000000117</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>103</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>14166666.666666783</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>104</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>13333333.333333449</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>105</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>12500000.000000115</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>106</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>11666666.666666782</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>107</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>10833333.333333448</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>108</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>10000000.000000114</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>109</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>9166666.6666667797</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>110</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>8333333.3333334466</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>111</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>7500000.0000001136</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>112</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>6666666.6666667806</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>113</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>5833333.3333334476</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>114</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>5000000.0000001146</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
         <v>115</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>4166666.6666667811</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>116</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>3333333.3333334476</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>117</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>2500000.0000001141</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>118</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>1666666.6666667806</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>119</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>833333.33333344723</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>120</v>
       </c>
@@ -6082,11 +6082,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53B21A4-6E30-47C7-BCA3-5ACA79C4A3DB}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C72" sqref="A72:XFD131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -6097,28 +6097,28 @@
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" ht="21">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="28">
         <v>100000000</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
         <v>11</v>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="21" t="s">
         <v>13</v>
@@ -6153,48 +6153,48 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="23">
         <v>0.13</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <f>SUM(D12:D131)</f>
         <v>229999999.99999964</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickTop="1">
+    <row r="11" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>0</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>98333333.333333343</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>3</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>97500000.000000015</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>4</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>96666666.666666687</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>5</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>95833333.333333358</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>6</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>95000000.00000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>7</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>94166666.666666701</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>8</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>93333333.333333373</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>9</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>92500000.000000045</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>10</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>91666666.666666716</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>11</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>90833333.333333388</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>12</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>90000000.00000006</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>13</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>89166666.666666731</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>14</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>88333333.333333403</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>15</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>87500000.000000075</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>16</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>86666666.666666746</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>17</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>85833333.333333418</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>18</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>85000000.000000089</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>19</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>84166666.666666761</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>20</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>83333333.333333433</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>21</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>82500000.000000104</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>22</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>81666666.666666776</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>23</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>80833333.333333448</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>24</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>80000000.000000119</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>25</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>79166666.666666791</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>26</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>78333333.333333462</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>27</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>77500000.000000134</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>28</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>76666666.666666806</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>29</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>75833333.333333477</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>30</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>75000000.000000149</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>31</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>74166666.666666821</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>32</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>73333333.333333492</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>33</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>72500000.000000164</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>34</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>71666666.666666836</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>35</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>70833333.333333507</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>36</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>70000000.000000179</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>37</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>69166666.66666685</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>38</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>68333333.333333522</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>39</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>67500000.000000194</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>40</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>66666666.666666858</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>41</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>65833333.333333522</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>42</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>65000000.000000186</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>43</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>64166666.66666685</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>44</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>63333333.333333515</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>45</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>62500000.000000179</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>46</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>61666666.666666843</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>47</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>60833333.333333507</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>48</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>60000000.000000171</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>49</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>59166666.666666836</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>50</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>58333333.3333335</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>51</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>57500000.000000164</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>52</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>56666666.666666828</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>53</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>55833333.333333492</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>54</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>55000000.000000156</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>55</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>54166666.666666821</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>56</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>53333333.333333485</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>57</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>52500000.000000149</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>58</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>51666666.666666813</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>59</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>50833333.333333477</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>60</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>50000000.000000142</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>61</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>49166666.666666806</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>62</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>48333333.33333347</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>63</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>47500000.000000134</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>64</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>46666666.666666798</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>65</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>45833333.333333462</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>66</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>45000000.000000127</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>67</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>44166666.666666791</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>68</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>43333333.333333455</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>69</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>42500000.000000119</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>70</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>41666666.666666783</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>71</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>40833333.333333448</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>72</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>40000000.000000112</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>73</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>39166666.666666776</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>74</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>38333333.33333344</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>75</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>37500000.000000104</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>76</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>36666666.666666768</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>77</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>35833333.333333433</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>78</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>35000000.000000097</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>79</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>34166666.666666761</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>80</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>33333333.333333429</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>81</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>32500000.000000097</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>82</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>31666666.666666765</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>83</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>30833333.333333433</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>84</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>30000000.000000101</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>85</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>29166666.666666768</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>86</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>28333333.333333436</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>87</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>27500000.000000104</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>88</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>26666666.666666772</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="9">
         <v>89</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>25833333.33333344</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>90</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>25000000.000000108</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
         <v>91</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>24166666.666666776</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>92</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>23333333.333333444</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>93</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>22500000.000000112</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>94</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>21666666.66666678</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>95</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>20833333.333333448</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>96</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>20000000.000000115</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>97</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>19166666.666666783</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>98</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>18333333.333333451</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>99</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>17500000.000000119</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="9">
         <v>100</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>16666666.666666785</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>101</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>15833333.333333451</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>102</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>15000000.000000117</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>103</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>14166666.666666783</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>104</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>13333333.333333449</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>105</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>12500000.000000115</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>106</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>11666666.666666782</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>107</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>10833333.333333448</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>108</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>10000000.000000114</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>109</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>9166666.6666667797</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
         <v>110</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>8333333.3333334466</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
         <v>111</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>7500000.0000001136</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="9">
         <v>112</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>6666666.6666667806</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="9">
         <v>113</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>5833333.3333334476</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
         <v>114</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>5000000.0000001146</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
         <v>115</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>4166666.6666667811</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
         <v>116</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>3333333.3333334476</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>117</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>2500000.0000001141</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>118</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>1666666.6666667806</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>119</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>833333.33333344723</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>120</v>
       </c>

--- a/file/Bunga Bank.xlsx
+++ b/file/Bunga Bank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seagroup-my.sharepoint.com/personal/laras_fitria_seabank_co_id/Documents/Documents/01. WORK/ERFAN/python/python_scripts/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seagroup-my.sharepoint.com/personal/laras_fitria_seabank_co_id/Documents/Documents/01. WORK/01. Erfan/python/python_scripts/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2892C636-DACA-43F3-9D50-41A45DE858A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBC3DE48-B2E3-4501-9136-F3BAF8BCDABF}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{2892C636-DACA-43F3-9D50-41A45DE858A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{380B3D4D-4AB8-4AF7-8FC5-D981D99BC393}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{1CBA5CE4-DB39-4226-AD0C-65F1AF72541C}"/>
   </bookViews>
@@ -304,7 +304,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -398,6 +398,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -717,7 +718,7 @@
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3397,10 +3398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFD9FC8-12FF-4071-BCE3-E017503F36EB}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3412,9 +3413,10 @@
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
@@ -3423,14 +3425,14 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="21" t="s">
         <v>17</v>
@@ -3443,7 +3445,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
         <v>11</v>
@@ -3456,7 +3458,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="21" t="s">
         <v>13</v>
@@ -3470,41 +3472,41 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="20">
-        <v>0.13</v>
+        <v>0.35649999999999998</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="29">
         <f>SUM(D12:D131)</f>
-        <v>165541666.66666675</v>
+        <v>279735416.66666704</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -3519,7 +3521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -3535,8 +3537,9 @@
       <c r="E10" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>0</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -3558,11 +3561,11 @@
       </c>
       <c r="C12" s="11">
         <f>E11*$C$6*(30/360)</f>
-        <v>1083333.3333333333</v>
+        <v>2970833.333333333</v>
       </c>
       <c r="D12" s="11">
         <f>SUM(B12:C12)</f>
-        <v>1916666.6666666665</v>
+        <v>3804166.6666666665</v>
       </c>
       <c r="E12" s="11">
         <f>E11-B12</f>
@@ -3570,7 +3573,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -3580,18 +3583,18 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" ref="C13:C76" si="1">E12*$C$6*(30/360)</f>
-        <v>1074305.5555555555</v>
+        <v>2946076.3888888885</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" ref="D13:D76" si="2">SUM(B13:C13)</f>
-        <v>1907638.888888889</v>
+        <v>3779409.722222222</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" ref="E13:E76" si="3">E12-B13</f>
         <v>98333333.333333343</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>3</v>
       </c>
@@ -3601,18 +3604,18 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="1"/>
-        <v>1065277.777777778</v>
+        <v>2921319.4444444445</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="2"/>
-        <v>1898611.1111111115</v>
+        <v>3754652.777777778</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="3"/>
         <v>97500000.000000015</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>4</v>
       </c>
@@ -3622,18 +3625,18 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="1"/>
-        <v>1056250</v>
+        <v>2896562.5</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="2"/>
-        <v>1889583.3333333335</v>
+        <v>3729895.8333333335</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="3"/>
         <v>96666666.666666687</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>5</v>
       </c>
@@ -3643,11 +3646,11 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="1"/>
-        <v>1047222.2222222225</v>
+        <v>2871805.555555556</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="2"/>
-        <v>1880555.555555556</v>
+        <v>3705138.8888888895</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="3"/>
@@ -3664,11 +3667,11 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="1"/>
-        <v>1038194.4444444447</v>
+        <v>2847048.6111111119</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="2"/>
-        <v>1871527.777777778</v>
+        <v>3680381.9444444454</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="3"/>
@@ -3685,11 +3688,11 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="1"/>
-        <v>1029166.666666667</v>
+        <v>2822291.666666667</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="2"/>
-        <v>1862500.0000000005</v>
+        <v>3655625.0000000005</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="3"/>
@@ -3706,11 +3709,11 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" si="1"/>
-        <v>1020138.8888888892</v>
+        <v>2797534.7222222229</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="2"/>
-        <v>1853472.2222222225</v>
+        <v>3630868.0555555564</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="3"/>
@@ -3727,11 +3730,11 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" si="1"/>
-        <v>1011111.1111111116</v>
+        <v>2772777.7777777789</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="2"/>
-        <v>1844444.444444445</v>
+        <v>3606111.1111111124</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="3"/>
@@ -3748,11 +3751,11 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" si="1"/>
-        <v>1002083.3333333337</v>
+        <v>2748020.8333333344</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="2"/>
-        <v>1835416.666666667</v>
+        <v>3581354.1666666679</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="3"/>
@@ -3769,11 +3772,11 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" si="1"/>
-        <v>993055.55555555609</v>
+        <v>2723263.8888888899</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="2"/>
-        <v>1826388.8888888895</v>
+        <v>3556597.2222222234</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="3"/>
@@ -3790,11 +3793,11 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" si="1"/>
-        <v>984027.77777777845</v>
+        <v>2698506.9444444459</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="2"/>
-        <v>1817361.1111111119</v>
+        <v>3531840.2777777794</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="3"/>
@@ -3811,11 +3814,11 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" si="1"/>
-        <v>975000.00000000058</v>
+        <v>2673750.0000000014</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="2"/>
-        <v>1808333.333333334</v>
+        <v>3507083.3333333349</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="3"/>
@@ -3832,11 +3835,11 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" si="1"/>
-        <v>965972.22222222295</v>
+        <v>2648993.0555555569</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="2"/>
-        <v>1799305.5555555564</v>
+        <v>3482326.3888888904</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="3"/>
@@ -3853,11 +3856,11 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" si="1"/>
-        <v>956944.44444444519</v>
+        <v>2624236.1111111129</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="2"/>
-        <v>1790277.7777777785</v>
+        <v>3457569.4444444464</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="3"/>
@@ -3874,11 +3877,11 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" si="1"/>
-        <v>947916.66666666744</v>
+        <v>2599479.1666666688</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="2"/>
-        <v>1781250.0000000009</v>
+        <v>3432812.5000000023</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="3"/>
@@ -3895,11 +3898,11 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
-        <v>938888.88888888969</v>
+        <v>2574722.2222222243</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="2"/>
-        <v>1772222.2222222229</v>
+        <v>3408055.5555555578</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="3"/>
@@ -3916,11 +3919,11 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" si="1"/>
-        <v>929861.11111111206</v>
+        <v>2549965.2777777798</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="2"/>
-        <v>1763194.4444444454</v>
+        <v>3383298.6111111133</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="3"/>
@@ -3937,11 +3940,11 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" si="1"/>
-        <v>920833.33333333419</v>
+        <v>2525208.3333333358</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="2"/>
-        <v>1754166.6666666674</v>
+        <v>3358541.6666666693</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="3"/>
@@ -3958,11 +3961,11 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" si="1"/>
-        <v>911805.55555555655</v>
+        <v>2500451.3888888913</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="2"/>
-        <v>1745138.8888888899</v>
+        <v>3333784.7222222248</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="3"/>
@@ -3979,11 +3982,11 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" si="1"/>
-        <v>902777.77777777892</v>
+        <v>2475694.4444444468</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="2"/>
-        <v>1736111.1111111124</v>
+        <v>3309027.7777777803</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="3"/>
@@ -4000,11 +4003,11 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" si="1"/>
-        <v>893750.00000000105</v>
+        <v>2450937.5000000028</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="2"/>
-        <v>1727083.3333333344</v>
+        <v>3284270.8333333363</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="3"/>
@@ -4021,11 +4024,11 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
-        <v>884722.22222222341</v>
+        <v>2426180.5555555588</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="2"/>
-        <v>1718055.5555555569</v>
+        <v>3259513.8888888923</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="3"/>
@@ -4042,11 +4045,11 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" si="1"/>
-        <v>875694.44444444566</v>
+        <v>2401423.6111111143</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="2"/>
-        <v>1709027.7777777789</v>
+        <v>3234756.9444444478</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="3"/>
@@ -4063,11 +4066,11 @@
       </c>
       <c r="C36" s="4">
         <f t="shared" si="1"/>
-        <v>866666.66666666802</v>
+        <v>2376666.6666666698</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="2"/>
-        <v>1700000.0000000014</v>
+        <v>3210000.0000000033</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="3"/>
@@ -4084,11 +4087,11 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" si="1"/>
-        <v>857638.88888889016</v>
+        <v>2351909.7222222257</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="2"/>
-        <v>1690972.2222222234</v>
+        <v>3185243.0555555592</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="3"/>
@@ -4105,11 +4108,11 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
-        <v>848611.11111111252</v>
+        <v>2327152.7777777812</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="2"/>
-        <v>1681944.4444444459</v>
+        <v>3160486.1111111147</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="3"/>
@@ -4126,11 +4129,11 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
-        <v>839583.33333333489</v>
+        <v>2302395.8333333367</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="2"/>
-        <v>1672916.6666666684</v>
+        <v>3135729.1666666702</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="3"/>
@@ -4147,11 +4150,11 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" si="1"/>
-        <v>830555.55555555702</v>
+        <v>2277638.8888888927</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="2"/>
-        <v>1663888.8888888904</v>
+        <v>3110972.2222222262</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="3"/>
@@ -4168,11 +4171,11 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
-        <v>821527.77777777938</v>
+        <v>2252881.9444444487</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="2"/>
-        <v>1654861.1111111129</v>
+        <v>3086215.2777777822</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="3"/>
@@ -4189,11 +4192,11 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
-        <v>812500.00000000163</v>
+        <v>2228125.0000000042</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="2"/>
-        <v>1645833.3333333349</v>
+        <v>3061458.3333333377</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="3"/>
@@ -4210,11 +4213,11 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
-        <v>803472.22222222388</v>
+        <v>2203368.0555555597</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" si="2"/>
-        <v>1636805.5555555574</v>
+        <v>3036701.3888888932</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="3"/>
@@ -4231,11 +4234,11 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
-        <v>794444.44444444613</v>
+        <v>2178611.1111111157</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="2"/>
-        <v>1627777.7777777794</v>
+        <v>3011944.4444444492</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
@@ -4252,11 +4255,11 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
-        <v>785416.66666666849</v>
+        <v>2153854.1666666712</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="2"/>
-        <v>1618750.0000000019</v>
+        <v>2987187.5000000047</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="3"/>
@@ -4273,11 +4276,11 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" si="1"/>
-        <v>776388.88888889062</v>
+        <v>2129097.2222222271</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" si="2"/>
-        <v>1609722.2222222239</v>
+        <v>2962430.5555555606</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="3"/>
@@ -4294,11 +4297,11 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" si="1"/>
-        <v>767361.11111111299</v>
+        <v>2104340.2777777826</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="2"/>
-        <v>1600694.4444444464</v>
+        <v>2937673.6111111161</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" si="3"/>
@@ -4315,11 +4318,11 @@
       </c>
       <c r="C48" s="4">
         <f t="shared" si="1"/>
-        <v>758333.33333333535</v>
+        <v>2079583.3333333386</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" si="2"/>
-        <v>1591666.6666666688</v>
+        <v>2912916.6666666721</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" si="3"/>
@@ -4336,11 +4339,11 @@
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
-        <v>749305.55555555748</v>
+        <v>2054826.3888888941</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" si="2"/>
-        <v>1582638.8888888909</v>
+        <v>2888159.7222222276</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" si="3"/>
@@ -4357,11 +4360,11 @@
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
-        <v>740277.77777777985</v>
+        <v>2030069.4444444499</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" si="2"/>
-        <v>1573611.1111111133</v>
+        <v>2863402.7777777831</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" si="3"/>
@@ -4378,11 +4381,11 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
-        <v>731250.0000000021</v>
+        <v>2005312.5000000056</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" si="2"/>
-        <v>1564583.3333333354</v>
+        <v>2838645.8333333391</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" si="3"/>
@@ -4399,11 +4402,11 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
-        <v>722222.22222222434</v>
+        <v>1980555.5555555611</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" si="2"/>
-        <v>1555555.5555555578</v>
+        <v>2813888.8888888946</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" si="3"/>
@@ -4420,11 +4423,11 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
-        <v>713194.44444444648</v>
+        <v>1955798.6111111166</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" si="2"/>
-        <v>1546527.7777777798</v>
+        <v>2789131.9444444501</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" si="3"/>
@@ -4441,11 +4444,11 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
-        <v>704166.66666666861</v>
+        <v>1931041.6666666721</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" si="2"/>
-        <v>1537500.0000000019</v>
+        <v>2764375.0000000056</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" si="3"/>
@@ -4462,11 +4465,11 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
-        <v>695138.88888889086</v>
+        <v>1906284.7222222276</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" si="2"/>
-        <v>1528472.2222222243</v>
+        <v>2739618.0555555611</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" si="3"/>
@@ -4483,11 +4486,11 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
-        <v>686111.1111111131</v>
+        <v>1881527.7777777829</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" si="2"/>
-        <v>1519444.4444444464</v>
+        <v>2714861.1111111161</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="3"/>
@@ -4504,11 +4507,11 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" si="1"/>
-        <v>677083.33333333523</v>
+        <v>1856770.8333333386</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" si="2"/>
-        <v>1510416.6666666686</v>
+        <v>2690104.1666666721</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" si="3"/>
@@ -4525,11 +4528,11 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" si="1"/>
-        <v>668055.55555555748</v>
+        <v>1832013.8888888939</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="2"/>
-        <v>1501388.8888888909</v>
+        <v>2665347.2222222271</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="3"/>
@@ -4546,11 +4549,11 @@
       </c>
       <c r="C59" s="4">
         <f t="shared" si="1"/>
-        <v>659027.77777777961</v>
+        <v>1807256.9444444496</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" si="2"/>
-        <v>1492361.1111111129</v>
+        <v>2640590.2777777831</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" si="3"/>
@@ -4567,11 +4570,11 @@
       </c>
       <c r="C60" s="4">
         <f t="shared" si="1"/>
-        <v>650000.00000000186</v>
+        <v>1782500.0000000049</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" si="2"/>
-        <v>1483333.3333333354</v>
+        <v>2615833.3333333381</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" si="3"/>
@@ -4588,11 +4591,11 @@
       </c>
       <c r="C61" s="4">
         <f t="shared" si="1"/>
-        <v>640972.22222222411</v>
+        <v>1757743.0555555606</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" si="2"/>
-        <v>1474305.5555555574</v>
+        <v>2591076.3888888941</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" si="3"/>
@@ -4609,11 +4612,11 @@
       </c>
       <c r="C62" s="4">
         <f t="shared" si="1"/>
-        <v>631944.44444444624</v>
+        <v>1732986.1111111159</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" si="2"/>
-        <v>1465277.7777777796</v>
+        <v>2566319.4444444492</v>
       </c>
       <c r="E62" s="4">
         <f t="shared" si="3"/>
@@ -4630,11 +4633,11 @@
       </c>
       <c r="C63" s="4">
         <f t="shared" si="1"/>
-        <v>622916.66666666837</v>
+        <v>1708229.1666666712</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" si="2"/>
-        <v>1456250.0000000019</v>
+        <v>2541562.5000000047</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" si="3"/>
@@ -4651,11 +4654,11 @@
       </c>
       <c r="C64" s="4">
         <f t="shared" si="1"/>
-        <v>613888.88888889062</v>
+        <v>1683472.2222222269</v>
       </c>
       <c r="D64" s="4">
         <f t="shared" si="2"/>
-        <v>1447222.2222222239</v>
+        <v>2516805.5555555602</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" si="3"/>
@@ -4672,11 +4675,11 @@
       </c>
       <c r="C65" s="4">
         <f t="shared" si="1"/>
-        <v>604861.11111111287</v>
+        <v>1658715.2777777822</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" si="2"/>
-        <v>1438194.4444444464</v>
+        <v>2492048.6111111157</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" si="3"/>
@@ -4693,11 +4696,11 @@
       </c>
       <c r="C66" s="4">
         <f t="shared" si="1"/>
-        <v>595833.333333335</v>
+        <v>1633958.3333333379</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" si="2"/>
-        <v>1429166.6666666684</v>
+        <v>2467291.6666666712</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" si="3"/>
@@ -4714,11 +4717,11 @@
       </c>
       <c r="C67" s="4">
         <f t="shared" si="1"/>
-        <v>586805.55555555713</v>
+        <v>1609201.3888888932</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" si="2"/>
-        <v>1420138.8888888904</v>
+        <v>2442534.7222222267</v>
       </c>
       <c r="E67" s="4">
         <f t="shared" si="3"/>
@@ -4735,11 +4738,11 @@
       </c>
       <c r="C68" s="4">
         <f t="shared" si="1"/>
-        <v>577777.77777777938</v>
+        <v>1584444.4444444489</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" si="2"/>
-        <v>1411111.1111111129</v>
+        <v>2417777.7777777822</v>
       </c>
       <c r="E68" s="4">
         <f t="shared" si="3"/>
@@ -4756,11 +4759,11 @@
       </c>
       <c r="C69" s="4">
         <f t="shared" si="1"/>
-        <v>568750.00000000163</v>
+        <v>1559687.5000000042</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" si="2"/>
-        <v>1402083.3333333349</v>
+        <v>2393020.8333333377</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" si="3"/>
@@ -4777,11 +4780,11 @@
       </c>
       <c r="C70" s="4">
         <f t="shared" si="1"/>
-        <v>559722.22222222376</v>
+        <v>1534930.5555555597</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" si="2"/>
-        <v>1393055.5555555571</v>
+        <v>2368263.8888888932</v>
       </c>
       <c r="E70" s="4">
         <f t="shared" si="3"/>
@@ -4798,11 +4801,11 @@
       </c>
       <c r="C71" s="4">
         <f t="shared" si="1"/>
-        <v>550694.44444444601</v>
+        <v>1510173.6111111152</v>
       </c>
       <c r="D71" s="4">
         <f t="shared" si="2"/>
-        <v>1384027.7777777794</v>
+        <v>2343506.9444444487</v>
       </c>
       <c r="E71" s="4">
         <f t="shared" si="3"/>
@@ -4819,11 +4822,11 @@
       </c>
       <c r="C72" s="4">
         <f t="shared" si="1"/>
-        <v>541666.66666666814</v>
+        <v>1485416.6666666707</v>
       </c>
       <c r="D72" s="4">
         <f t="shared" si="2"/>
-        <v>1375000.0000000014</v>
+        <v>2318750.0000000042</v>
       </c>
       <c r="E72" s="4">
         <f t="shared" si="3"/>
@@ -4840,11 +4843,11 @@
       </c>
       <c r="C73" s="4">
         <f t="shared" si="1"/>
-        <v>532638.88888889039</v>
+        <v>1460659.7222222262</v>
       </c>
       <c r="D73" s="4">
         <f t="shared" si="2"/>
-        <v>1365972.2222222239</v>
+        <v>2293993.0555555597</v>
       </c>
       <c r="E73" s="4">
         <f t="shared" si="3"/>
@@ -4861,11 +4864,11 @@
       </c>
       <c r="C74" s="4">
         <f t="shared" si="1"/>
-        <v>523611.11111111264</v>
+        <v>1435902.7777777817</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" si="2"/>
-        <v>1356944.4444444459</v>
+        <v>2269236.1111111152</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" si="3"/>
@@ -4882,11 +4885,11 @@
       </c>
       <c r="C75" s="4">
         <f t="shared" si="1"/>
-        <v>514583.33333333477</v>
+        <v>1411145.8333333372</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" si="2"/>
-        <v>1347916.6666666681</v>
+        <v>2244479.1666666707</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" si="3"/>
@@ -4903,11 +4906,11 @@
       </c>
       <c r="C76" s="4">
         <f t="shared" si="1"/>
-        <v>505555.55555555696</v>
+        <v>1386388.8888888927</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" si="2"/>
-        <v>1338888.8888888904</v>
+        <v>2219722.2222222262</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="3"/>
@@ -4924,11 +4927,11 @@
       </c>
       <c r="C77" s="4">
         <f t="shared" ref="C77:C131" si="5">E76*$C$6*(30/360)</f>
-        <v>496527.77777777921</v>
+        <v>1361631.9444444482</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" ref="D77:D131" si="6">SUM(B77:C77)</f>
-        <v>1329861.1111111126</v>
+        <v>2194965.2777777817</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" ref="E77:E131" si="7">E76-B77</f>
@@ -4945,11 +4948,11 @@
       </c>
       <c r="C78" s="4">
         <f t="shared" si="5"/>
-        <v>487500.0000000014</v>
+        <v>1336875.0000000037</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" si="6"/>
-        <v>1320833.3333333349</v>
+        <v>2170208.3333333372</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" si="7"/>
@@ -4966,11 +4969,11 @@
       </c>
       <c r="C79" s="4">
         <f t="shared" si="5"/>
-        <v>478472.22222222353</v>
+        <v>1312118.0555555592</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" si="6"/>
-        <v>1311805.5555555569</v>
+        <v>2145451.3888888927</v>
       </c>
       <c r="E79" s="4">
         <f t="shared" si="7"/>
@@ -4987,11 +4990,11 @@
       </c>
       <c r="C80" s="4">
         <f t="shared" si="5"/>
-        <v>469444.44444444578</v>
+        <v>1287361.1111111147</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" si="6"/>
-        <v>1302777.7777777791</v>
+        <v>2120694.4444444482</v>
       </c>
       <c r="E80" s="4">
         <f t="shared" si="7"/>
@@ -5008,11 +5011,11 @@
       </c>
       <c r="C81" s="4">
         <f t="shared" si="5"/>
-        <v>460416.66666666797</v>
+        <v>1262604.16666667</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" si="6"/>
-        <v>1293750.0000000014</v>
+        <v>2095937.5000000033</v>
       </c>
       <c r="E81" s="4">
         <f t="shared" si="7"/>
@@ -5029,11 +5032,11 @@
       </c>
       <c r="C82" s="4">
         <f t="shared" si="5"/>
-        <v>451388.88888889016</v>
+        <v>1237847.2222222255</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" si="6"/>
-        <v>1284722.2222222234</v>
+        <v>2071180.5555555588</v>
       </c>
       <c r="E82" s="4">
         <f t="shared" si="7"/>
@@ -5050,11 +5053,11 @@
       </c>
       <c r="C83" s="4">
         <f t="shared" si="5"/>
-        <v>442361.11111111229</v>
+        <v>1213090.277777781</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" si="6"/>
-        <v>1275694.4444444457</v>
+        <v>2046423.6111111143</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" si="7"/>
@@ -5071,11 +5074,11 @@
       </c>
       <c r="C84" s="4">
         <f t="shared" si="5"/>
-        <v>433333.33333333454</v>
+        <v>1188333.3333333365</v>
       </c>
       <c r="D84" s="4">
         <f t="shared" si="6"/>
-        <v>1266666.6666666679</v>
+        <v>2021666.6666666698</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" si="7"/>
@@ -5092,11 +5095,11 @@
       </c>
       <c r="C85" s="4">
         <f t="shared" si="5"/>
-        <v>424305.55555555673</v>
+        <v>1163576.388888892</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" si="6"/>
-        <v>1257638.8888888902</v>
+        <v>1996909.7222222253</v>
       </c>
       <c r="E85" s="4">
         <f t="shared" si="7"/>
@@ -5113,11 +5116,11 @@
       </c>
       <c r="C86" s="4">
         <f t="shared" si="5"/>
-        <v>415277.77777777892</v>
+        <v>1138819.4444444475</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" si="6"/>
-        <v>1248611.1111111124</v>
+        <v>1972152.7777777808</v>
       </c>
       <c r="E86" s="4">
         <f t="shared" si="7"/>
@@ -5134,11 +5137,11 @@
       </c>
       <c r="C87" s="4">
         <f t="shared" si="5"/>
-        <v>406250.00000000116</v>
+        <v>1114062.500000003</v>
       </c>
       <c r="D87" s="4">
         <f t="shared" si="6"/>
-        <v>1239583.3333333344</v>
+        <v>1947395.8333333363</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" si="7"/>
@@ -5155,11 +5158,11 @@
       </c>
       <c r="C88" s="4">
         <f t="shared" si="5"/>
-        <v>397222.2222222233</v>
+        <v>1089305.5555555583</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" si="6"/>
-        <v>1230555.5555555567</v>
+        <v>1922638.8888888918</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" si="7"/>
@@ -5176,11 +5179,11 @@
       </c>
       <c r="C89" s="4">
         <f t="shared" si="5"/>
-        <v>388194.44444444549</v>
+        <v>1064548.6111111138</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" si="6"/>
-        <v>1221527.7777777789</v>
+        <v>1897881.9444444473</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" si="7"/>
@@ -5197,11 +5200,11 @@
       </c>
       <c r="C90" s="4">
         <f t="shared" si="5"/>
-        <v>379166.66666666773</v>
+        <v>1039791.6666666694</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" si="6"/>
-        <v>1212500.0000000012</v>
+        <v>1873125.0000000028</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" si="7"/>
@@ -5218,11 +5221,11 @@
       </c>
       <c r="C91" s="4">
         <f t="shared" si="5"/>
-        <v>370138.88888888992</v>
+        <v>1015034.7222222249</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" si="6"/>
-        <v>1203472.2222222234</v>
+        <v>1848368.0555555583</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" si="7"/>
@@ -5239,11 +5242,11 @@
       </c>
       <c r="C92" s="4">
         <f t="shared" si="5"/>
-        <v>361111.11111111217</v>
+        <v>990277.77777778055</v>
       </c>
       <c r="D92" s="4">
         <f t="shared" si="6"/>
-        <v>1194444.4444444454</v>
+        <v>1823611.1111111138</v>
       </c>
       <c r="E92" s="4">
         <f t="shared" si="7"/>
@@ -5260,11 +5263,11 @@
       </c>
       <c r="C93" s="4">
         <f t="shared" si="5"/>
-        <v>352083.33333333442</v>
+        <v>965520.83333333605</v>
       </c>
       <c r="D93" s="4">
         <f t="shared" si="6"/>
-        <v>1185416.6666666679</v>
+        <v>1798854.1666666693</v>
       </c>
       <c r="E93" s="4">
         <f t="shared" si="7"/>
@@ -5281,11 +5284,11 @@
       </c>
       <c r="C94" s="4">
         <f t="shared" si="5"/>
-        <v>343055.55555555661</v>
+        <v>940763.88888889179</v>
       </c>
       <c r="D94" s="4">
         <f t="shared" si="6"/>
-        <v>1176388.8888888899</v>
+        <v>1774097.2222222253</v>
       </c>
       <c r="E94" s="4">
         <f t="shared" si="7"/>
@@ -5302,11 +5305,11 @@
       </c>
       <c r="C95" s="4">
         <f t="shared" si="5"/>
-        <v>334027.77777777886</v>
+        <v>916006.94444444729</v>
       </c>
       <c r="D95" s="4">
         <f t="shared" si="6"/>
-        <v>1167361.1111111122</v>
+        <v>1749340.2777777808</v>
       </c>
       <c r="E95" s="4">
         <f t="shared" si="7"/>
@@ -5323,11 +5326,11 @@
       </c>
       <c r="C96" s="4">
         <f t="shared" si="5"/>
-        <v>325000.00000000105</v>
+        <v>891250.00000000291</v>
       </c>
       <c r="D96" s="4">
         <f t="shared" si="6"/>
-        <v>1158333.3333333344</v>
+        <v>1724583.3333333363</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" si="7"/>
@@ -5344,11 +5347,11 @@
       </c>
       <c r="C97" s="4">
         <f t="shared" si="5"/>
-        <v>315972.2222222233</v>
+        <v>866493.05555555853</v>
       </c>
       <c r="D97" s="4">
         <f t="shared" si="6"/>
-        <v>1149305.5555555567</v>
+        <v>1699826.3888888918</v>
       </c>
       <c r="E97" s="4">
         <f t="shared" si="7"/>
@@ -5365,11 +5368,11 @@
       </c>
       <c r="C98" s="4">
         <f t="shared" si="5"/>
-        <v>306944.44444444554</v>
+        <v>841736.11111111403</v>
       </c>
       <c r="D98" s="4">
         <f t="shared" si="6"/>
-        <v>1140277.7777777789</v>
+        <v>1675069.4444444473</v>
       </c>
       <c r="E98" s="4">
         <f t="shared" si="7"/>
@@ -5386,11 +5389,11 @@
       </c>
       <c r="C99" s="4">
         <f t="shared" si="5"/>
-        <v>297916.66666666779</v>
+        <v>816979.16666666977</v>
       </c>
       <c r="D99" s="4">
         <f t="shared" si="6"/>
-        <v>1131250.0000000012</v>
+        <v>1650312.5000000033</v>
       </c>
       <c r="E99" s="4">
         <f t="shared" si="7"/>
@@ -5407,11 +5410,11 @@
       </c>
       <c r="C100" s="4">
         <f t="shared" si="5"/>
-        <v>288888.88888889004</v>
+        <v>792222.22222222527</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" si="6"/>
-        <v>1122222.2222222234</v>
+        <v>1625555.5555555588</v>
       </c>
       <c r="E100" s="4">
         <f t="shared" si="7"/>
@@ -5428,11 +5431,11 @@
       </c>
       <c r="C101" s="4">
         <f t="shared" si="5"/>
-        <v>279861.11111111229</v>
+        <v>767465.2777777809</v>
       </c>
       <c r="D101" s="4">
         <f t="shared" si="6"/>
-        <v>1113194.4444444457</v>
+        <v>1600798.6111111143</v>
       </c>
       <c r="E101" s="4">
         <f t="shared" si="7"/>
@@ -5449,11 +5452,11 @@
       </c>
       <c r="C102" s="4">
         <f t="shared" si="5"/>
-        <v>270833.33333333448</v>
+        <v>742708.3333333364</v>
       </c>
       <c r="D102" s="4">
         <f t="shared" si="6"/>
-        <v>1104166.6666666679</v>
+        <v>1576041.6666666698</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" si="7"/>
@@ -5470,11 +5473,11 @@
       </c>
       <c r="C103" s="4">
         <f t="shared" si="5"/>
-        <v>261805.55555555673</v>
+        <v>717951.38888889202</v>
       </c>
       <c r="D103" s="4">
         <f t="shared" si="6"/>
-        <v>1095138.8888888902</v>
+        <v>1551284.7222222253</v>
       </c>
       <c r="E103" s="4">
         <f t="shared" si="7"/>
@@ -5491,11 +5494,11 @@
       </c>
       <c r="C104" s="4">
         <f t="shared" si="5"/>
-        <v>252777.77777777897</v>
+        <v>693194.44444444764</v>
       </c>
       <c r="D104" s="4">
         <f t="shared" si="6"/>
-        <v>1086111.1111111124</v>
+        <v>1526527.777777781</v>
       </c>
       <c r="E104" s="4">
         <f t="shared" si="7"/>
@@ -5512,11 +5515,11 @@
       </c>
       <c r="C105" s="4">
         <f t="shared" si="5"/>
-        <v>243750.00000000119</v>
+        <v>668437.50000000326</v>
       </c>
       <c r="D105" s="4">
         <f t="shared" si="6"/>
-        <v>1077083.3333333347</v>
+        <v>1501770.8333333367</v>
       </c>
       <c r="E105" s="4">
         <f t="shared" si="7"/>
@@ -5533,11 +5536,11 @@
       </c>
       <c r="C106" s="4">
         <f t="shared" si="5"/>
-        <v>234722.22222222344</v>
+        <v>643680.55555555888</v>
       </c>
       <c r="D106" s="4">
         <f t="shared" si="6"/>
-        <v>1068055.5555555569</v>
+        <v>1477013.8888888923</v>
       </c>
       <c r="E106" s="4">
         <f t="shared" si="7"/>
@@ -5554,11 +5557,11 @@
       </c>
       <c r="C107" s="4">
         <f t="shared" si="5"/>
-        <v>225694.44444444569</v>
+        <v>618923.6111111145</v>
       </c>
       <c r="D107" s="4">
         <f t="shared" si="6"/>
-        <v>1059027.7777777791</v>
+        <v>1452256.9444444478</v>
       </c>
       <c r="E107" s="4">
         <f t="shared" si="7"/>
@@ -5575,11 +5578,11 @@
       </c>
       <c r="C108" s="4">
         <f t="shared" si="5"/>
-        <v>216666.66666666791</v>
+        <v>594166.66666667</v>
       </c>
       <c r="D108" s="4">
         <f t="shared" si="6"/>
-        <v>1050000.0000000014</v>
+        <v>1427500.0000000033</v>
       </c>
       <c r="E108" s="4">
         <f t="shared" si="7"/>
@@ -5596,11 +5599,11 @@
       </c>
       <c r="C109" s="4">
         <f t="shared" si="5"/>
-        <v>207638.88888889016</v>
+        <v>569409.72222222562</v>
       </c>
       <c r="D109" s="4">
         <f t="shared" si="6"/>
-        <v>1040972.2222222235</v>
+        <v>1402743.055555559</v>
       </c>
       <c r="E109" s="4">
         <f t="shared" si="7"/>
@@ -5617,11 +5620,11 @@
       </c>
       <c r="C110" s="4">
         <f t="shared" si="5"/>
-        <v>198611.1111111124</v>
+        <v>544652.77777778124</v>
       </c>
       <c r="D110" s="4">
         <f t="shared" si="6"/>
-        <v>1031944.4444444458</v>
+        <v>1377986.1111111147</v>
       </c>
       <c r="E110" s="4">
         <f t="shared" si="7"/>
@@ -5638,11 +5641,11 @@
       </c>
       <c r="C111" s="4">
         <f t="shared" si="5"/>
-        <v>189583.33333333459</v>
+        <v>519895.83333333681</v>
       </c>
       <c r="D111" s="4">
         <f t="shared" si="6"/>
-        <v>1022916.6666666679</v>
+        <v>1353229.1666666702</v>
       </c>
       <c r="E111" s="4">
         <f t="shared" si="7"/>
@@ -5659,11 +5662,11 @@
       </c>
       <c r="C112" s="4">
         <f t="shared" si="5"/>
-        <v>180555.55555555684</v>
+        <v>495138.88888889237</v>
       </c>
       <c r="D112" s="4">
         <f t="shared" si="6"/>
-        <v>1013888.8888888902</v>
+        <v>1328472.2222222257</v>
       </c>
       <c r="E112" s="4">
         <f t="shared" si="7"/>
@@ -5680,11 +5683,11 @@
       </c>
       <c r="C113" s="4">
         <f t="shared" si="5"/>
-        <v>171527.77777777906</v>
+        <v>470381.94444444787</v>
       </c>
       <c r="D113" s="4">
         <f t="shared" si="6"/>
-        <v>1004861.1111111124</v>
+        <v>1303715.2777777812</v>
       </c>
       <c r="E113" s="4">
         <f t="shared" si="7"/>
@@ -5701,11 +5704,11 @@
       </c>
       <c r="C114" s="4">
         <f t="shared" si="5"/>
-        <v>162500.00000000128</v>
+        <v>445625.00000000349</v>
       </c>
       <c r="D114" s="4">
         <f t="shared" si="6"/>
-        <v>995833.33333333465</v>
+        <v>1278958.3333333367</v>
       </c>
       <c r="E114" s="4">
         <f t="shared" si="7"/>
@@ -5722,11 +5725,11 @@
       </c>
       <c r="C115" s="4">
         <f t="shared" si="5"/>
-        <v>153472.22222222347</v>
+        <v>420868.055555559</v>
       </c>
       <c r="D115" s="4">
         <f t="shared" si="6"/>
-        <v>986805.5555555569</v>
+        <v>1254201.3888888923</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="7"/>
@@ -5743,11 +5746,11 @@
       </c>
       <c r="C116" s="4">
         <f t="shared" si="5"/>
-        <v>144444.44444444569</v>
+        <v>396111.11111111456</v>
       </c>
       <c r="D116" s="4">
         <f t="shared" si="6"/>
-        <v>977777.77777777903</v>
+        <v>1229444.444444448</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="7"/>
@@ -5764,11 +5767,11 @@
       </c>
       <c r="C117" s="4">
         <f t="shared" si="5"/>
-        <v>135416.66666666791</v>
+        <v>371354.16666667006</v>
       </c>
       <c r="D117" s="4">
         <f t="shared" si="6"/>
-        <v>968750.00000000128</v>
+        <v>1204687.5000000035</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="7"/>
@@ -5785,11 +5788,11 @@
       </c>
       <c r="C118" s="4">
         <f t="shared" si="5"/>
-        <v>126388.88888889013</v>
+        <v>346597.22222222562</v>
       </c>
       <c r="D118" s="4">
         <f t="shared" si="6"/>
-        <v>959722.22222222353</v>
+        <v>1179930.555555559</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="7"/>
@@ -5806,11 +5809,11 @@
       </c>
       <c r="C119" s="4">
         <f t="shared" si="5"/>
-        <v>117361.11111111235</v>
+        <v>321840.27777778113</v>
       </c>
       <c r="D119" s="4">
         <f t="shared" si="6"/>
-        <v>950694.44444444566</v>
+        <v>1155173.6111111145</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="7"/>
@@ -5827,11 +5830,11 @@
       </c>
       <c r="C120" s="4">
         <f t="shared" si="5"/>
-        <v>108333.33333333457</v>
+        <v>297083.33333333669</v>
       </c>
       <c r="D120" s="4">
         <f t="shared" si="6"/>
-        <v>941666.66666666791</v>
+        <v>1130416.66666667</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="7"/>
@@ -5848,11 +5851,11 @@
       </c>
       <c r="C121" s="4">
         <f t="shared" si="5"/>
-        <v>99305.555555556784</v>
+        <v>272326.38888889225</v>
       </c>
       <c r="D121" s="4">
         <f t="shared" si="6"/>
-        <v>932638.88888889016</v>
+        <v>1105659.7222222257</v>
       </c>
       <c r="E121" s="4">
         <f t="shared" si="7"/>
@@ -5869,11 +5872,11 @@
       </c>
       <c r="C122" s="4">
         <f t="shared" si="5"/>
-        <v>90277.777777779003</v>
+        <v>247569.44444444778</v>
       </c>
       <c r="D122" s="4">
         <f t="shared" si="6"/>
-        <v>923611.1111111124</v>
+        <v>1080902.7777777812</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" si="7"/>
@@ -5890,11 +5893,11 @@
       </c>
       <c r="C123" s="4">
         <f t="shared" si="5"/>
-        <v>81250.000000001222</v>
+        <v>222812.50000000338</v>
       </c>
       <c r="D123" s="4">
         <f t="shared" si="6"/>
-        <v>914583.33333333465</v>
+        <v>1056145.8333333367</v>
       </c>
       <c r="E123" s="4">
         <f t="shared" si="7"/>
@@ -5911,11 +5914,11 @@
       </c>
       <c r="C124" s="4">
         <f t="shared" si="5"/>
-        <v>72222.222222223456</v>
+        <v>198055.55555555891</v>
       </c>
       <c r="D124" s="4">
         <f t="shared" si="6"/>
-        <v>905555.55555555678</v>
+        <v>1031388.8888888923</v>
       </c>
       <c r="E124" s="4">
         <f t="shared" si="7"/>
@@ -5932,11 +5935,11 @@
       </c>
       <c r="C125" s="4">
         <f t="shared" si="5"/>
-        <v>63194.444444445675</v>
+        <v>173298.6111111145</v>
       </c>
       <c r="D125" s="4">
         <f t="shared" si="6"/>
-        <v>896527.77777777903</v>
+        <v>1006631.9444444479</v>
       </c>
       <c r="E125" s="4">
         <f t="shared" si="7"/>
@@ -5953,11 +5956,11 @@
       </c>
       <c r="C126" s="4">
         <f t="shared" si="5"/>
-        <v>54166.666666667908</v>
+        <v>148541.66666667006</v>
       </c>
       <c r="D126" s="4">
         <f t="shared" si="6"/>
-        <v>887500.00000000128</v>
+        <v>981875.00000000349</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="7"/>
@@ -5974,11 +5977,11 @@
       </c>
       <c r="C127" s="4">
         <f t="shared" si="5"/>
-        <v>45138.888888890127</v>
+        <v>123784.72222222562</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" si="6"/>
-        <v>878472.22222222353</v>
+        <v>957118.055555559</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="7"/>
@@ -5995,11 +5998,11 @@
       </c>
       <c r="C128" s="4">
         <f t="shared" si="5"/>
-        <v>36111.111111112346</v>
+        <v>99027.777777781157</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="6"/>
-        <v>869444.44444444566</v>
+        <v>932361.1111111145</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="7"/>
@@ -6016,11 +6019,11 @@
       </c>
       <c r="C129" s="4">
         <f t="shared" si="5"/>
-        <v>27083.333333334569</v>
+        <v>74270.833333336719</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="6"/>
-        <v>860416.66666666791</v>
+        <v>907604.16666667012</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="7"/>
@@ -6037,11 +6040,11 @@
       </c>
       <c r="C130" s="4">
         <f t="shared" si="5"/>
-        <v>18055.555555556788</v>
+        <v>49513.888888892267</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="6"/>
-        <v>851388.88888889016</v>
+        <v>882847.22222222562</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="7"/>
@@ -6058,11 +6061,11 @@
       </c>
       <c r="C131" s="4">
         <f t="shared" si="5"/>
-        <v>9027.7777777790106</v>
+        <v>24756.944444447829</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="6"/>
-        <v>842361.1111111124</v>
+        <v>858090.27777778124</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="7"/>
@@ -6080,10 +6083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53B21A4-6E30-47C7-BCA3-5ACA79C4A3DB}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6095,9 +6098,10 @@
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
@@ -6106,14 +6110,14 @@
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="21" t="s">
         <v>17</v>
@@ -6126,7 +6130,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="21" t="s">
         <v>11</v>
@@ -6139,7 +6143,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="21" t="s">
         <v>13</v>
@@ -6153,41 +6157,41 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="23">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="27">
         <f>SUM(D12:D131)</f>
-        <v>229999999.99999964</v>
+        <v>339999999.99999988</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -6201,8 +6205,9 @@
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -6219,7 +6224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>0</v>
       </c>
@@ -6231,7 +6236,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -6241,11 +6246,11 @@
       </c>
       <c r="C12" s="11">
         <f>($C$3*$C$4*$C$6)/$C$5</f>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D12" s="11">
         <f>SUM(B12:C12)</f>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E12" s="11">
         <f>E11-B12</f>
@@ -6253,7 +6258,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -6263,18 +6268,18 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" ref="C13:C76" si="1">($C$3*$C$4*$C$6)/$C$5</f>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" ref="D13:D76" si="2">SUM(B13:C13)</f>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" ref="E13:E76" si="3">E12-B13</f>
         <v>98333333.333333343</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>3</v>
       </c>
@@ -6284,18 +6289,18 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="3"/>
         <v>97500000.000000015</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>4</v>
       </c>
@@ -6305,18 +6310,18 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="3"/>
         <v>96666666.666666687</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>5</v>
       </c>
@@ -6326,11 +6331,11 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="3"/>
@@ -6347,11 +6352,11 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="3"/>
@@ -6368,11 +6373,11 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="3"/>
@@ -6389,11 +6394,11 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="3"/>
@@ -6410,11 +6415,11 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="3"/>
@@ -6431,11 +6436,11 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="3"/>
@@ -6452,11 +6457,11 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="3"/>
@@ -6473,11 +6478,11 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="3"/>
@@ -6494,11 +6499,11 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="3"/>
@@ -6515,11 +6520,11 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="3"/>
@@ -6536,11 +6541,11 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="3"/>
@@ -6557,11 +6562,11 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="3"/>
@@ -6578,11 +6583,11 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="3"/>
@@ -6599,11 +6604,11 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="3"/>
@@ -6620,11 +6625,11 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="3"/>
@@ -6641,11 +6646,11 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="3"/>
@@ -6662,11 +6667,11 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="3"/>
@@ -6683,11 +6688,11 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="3"/>
@@ -6704,11 +6709,11 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="3"/>
@@ -6725,11 +6730,11 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="3"/>
@@ -6746,11 +6751,11 @@
       </c>
       <c r="C36" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="3"/>
@@ -6767,11 +6772,11 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="3"/>
@@ -6788,11 +6793,11 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="3"/>
@@ -6809,11 +6814,11 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="3"/>
@@ -6830,11 +6835,11 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="3"/>
@@ -6851,11 +6856,11 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="3"/>
@@ -6872,11 +6877,11 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="3"/>
@@ -6893,11 +6898,11 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="3"/>
@@ -6914,11 +6919,11 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="3"/>
@@ -6935,11 +6940,11 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="3"/>
@@ -6956,11 +6961,11 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="3"/>
@@ -6977,11 +6982,11 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" si="3"/>
@@ -6998,11 +7003,11 @@
       </c>
       <c r="C48" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" si="3"/>
@@ -7019,11 +7024,11 @@
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" si="3"/>
@@ -7040,11 +7045,11 @@
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" si="3"/>
@@ -7061,11 +7066,11 @@
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" si="3"/>
@@ -7082,11 +7087,11 @@
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" si="3"/>
@@ -7103,11 +7108,11 @@
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" si="3"/>
@@ -7124,11 +7129,11 @@
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" si="3"/>
@@ -7145,11 +7150,11 @@
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" si="3"/>
@@ -7166,11 +7171,11 @@
       </c>
       <c r="C56" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="3"/>
@@ -7187,11 +7192,11 @@
       </c>
       <c r="C57" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" si="3"/>
@@ -7208,11 +7213,11 @@
       </c>
       <c r="C58" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="3"/>
@@ -7229,11 +7234,11 @@
       </c>
       <c r="C59" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" si="3"/>
@@ -7250,11 +7255,11 @@
       </c>
       <c r="C60" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" si="3"/>
@@ -7271,11 +7276,11 @@
       </c>
       <c r="C61" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" si="3"/>
@@ -7292,11 +7297,11 @@
       </c>
       <c r="C62" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E62" s="4">
         <f t="shared" si="3"/>
@@ -7313,11 +7318,11 @@
       </c>
       <c r="C63" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" si="3"/>
@@ -7334,11 +7339,11 @@
       </c>
       <c r="C64" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D64" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" si="3"/>
@@ -7355,11 +7360,11 @@
       </c>
       <c r="C65" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" si="3"/>
@@ -7376,11 +7381,11 @@
       </c>
       <c r="C66" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" si="3"/>
@@ -7397,11 +7402,11 @@
       </c>
       <c r="C67" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E67" s="4">
         <f t="shared" si="3"/>
@@ -7418,11 +7423,11 @@
       </c>
       <c r="C68" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E68" s="4">
         <f t="shared" si="3"/>
@@ -7439,11 +7444,11 @@
       </c>
       <c r="C69" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" si="3"/>
@@ -7460,11 +7465,11 @@
       </c>
       <c r="C70" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E70" s="4">
         <f t="shared" si="3"/>
@@ -7481,11 +7486,11 @@
       </c>
       <c r="C71" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D71" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E71" s="4">
         <f t="shared" si="3"/>
@@ -7502,11 +7507,11 @@
       </c>
       <c r="C72" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D72" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E72" s="4">
         <f t="shared" si="3"/>
@@ -7523,11 +7528,11 @@
       </c>
       <c r="C73" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D73" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E73" s="4">
         <f t="shared" si="3"/>
@@ -7544,11 +7549,11 @@
       </c>
       <c r="C74" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" si="3"/>
@@ -7565,11 +7570,11 @@
       </c>
       <c r="C75" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" si="3"/>
@@ -7586,11 +7591,11 @@
       </c>
       <c r="C76" s="4">
         <f t="shared" si="1"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" si="2"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="3"/>
@@ -7607,11 +7612,11 @@
       </c>
       <c r="C77" s="4">
         <f t="shared" ref="C77:C131" si="5">($C$3*$C$4*$C$6)/$C$5</f>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" ref="D77:D131" si="6">SUM(B77:C77)</f>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" ref="E77:E131" si="7">E76-B77</f>
@@ -7628,11 +7633,11 @@
       </c>
       <c r="C78" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" si="7"/>
@@ -7649,11 +7654,11 @@
       </c>
       <c r="C79" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E79" s="4">
         <f t="shared" si="7"/>
@@ -7670,11 +7675,11 @@
       </c>
       <c r="C80" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E80" s="4">
         <f t="shared" si="7"/>
@@ -7691,11 +7696,11 @@
       </c>
       <c r="C81" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E81" s="4">
         <f t="shared" si="7"/>
@@ -7712,11 +7717,11 @@
       </c>
       <c r="C82" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E82" s="4">
         <f t="shared" si="7"/>
@@ -7733,11 +7738,11 @@
       </c>
       <c r="C83" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" si="7"/>
@@ -7754,11 +7759,11 @@
       </c>
       <c r="C84" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D84" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" si="7"/>
@@ -7775,11 +7780,11 @@
       </c>
       <c r="C85" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E85" s="4">
         <f t="shared" si="7"/>
@@ -7796,11 +7801,11 @@
       </c>
       <c r="C86" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E86" s="4">
         <f t="shared" si="7"/>
@@ -7817,11 +7822,11 @@
       </c>
       <c r="C87" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D87" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" si="7"/>
@@ -7838,11 +7843,11 @@
       </c>
       <c r="C88" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" si="7"/>
@@ -7859,11 +7864,11 @@
       </c>
       <c r="C89" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" si="7"/>
@@ -7880,11 +7885,11 @@
       </c>
       <c r="C90" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" si="7"/>
@@ -7901,11 +7906,11 @@
       </c>
       <c r="C91" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" si="7"/>
@@ -7922,11 +7927,11 @@
       </c>
       <c r="C92" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D92" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E92" s="4">
         <f t="shared" si="7"/>
@@ -7943,11 +7948,11 @@
       </c>
       <c r="C93" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D93" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E93" s="4">
         <f t="shared" si="7"/>
@@ -7964,11 +7969,11 @@
       </c>
       <c r="C94" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D94" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E94" s="4">
         <f t="shared" si="7"/>
@@ -7985,11 +7990,11 @@
       </c>
       <c r="C95" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D95" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E95" s="4">
         <f t="shared" si="7"/>
@@ -8006,11 +8011,11 @@
       </c>
       <c r="C96" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D96" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" si="7"/>
@@ -8027,11 +8032,11 @@
       </c>
       <c r="C97" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D97" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E97" s="4">
         <f t="shared" si="7"/>
@@ -8048,11 +8053,11 @@
       </c>
       <c r="C98" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D98" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E98" s="4">
         <f t="shared" si="7"/>
@@ -8069,11 +8074,11 @@
       </c>
       <c r="C99" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D99" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E99" s="4">
         <f t="shared" si="7"/>
@@ -8090,11 +8095,11 @@
       </c>
       <c r="C100" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E100" s="4">
         <f t="shared" si="7"/>
@@ -8111,11 +8116,11 @@
       </c>
       <c r="C101" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D101" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E101" s="4">
         <f t="shared" si="7"/>
@@ -8132,11 +8137,11 @@
       </c>
       <c r="C102" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D102" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" si="7"/>
@@ -8153,11 +8158,11 @@
       </c>
       <c r="C103" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D103" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E103" s="4">
         <f t="shared" si="7"/>
@@ -8174,11 +8179,11 @@
       </c>
       <c r="C104" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D104" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E104" s="4">
         <f t="shared" si="7"/>
@@ -8195,11 +8200,11 @@
       </c>
       <c r="C105" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D105" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E105" s="4">
         <f t="shared" si="7"/>
@@ -8216,11 +8221,11 @@
       </c>
       <c r="C106" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D106" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E106" s="4">
         <f t="shared" si="7"/>
@@ -8237,11 +8242,11 @@
       </c>
       <c r="C107" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D107" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E107" s="4">
         <f t="shared" si="7"/>
@@ -8258,11 +8263,11 @@
       </c>
       <c r="C108" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D108" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E108" s="4">
         <f t="shared" si="7"/>
@@ -8279,11 +8284,11 @@
       </c>
       <c r="C109" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D109" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E109" s="4">
         <f t="shared" si="7"/>
@@ -8300,11 +8305,11 @@
       </c>
       <c r="C110" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D110" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E110" s="4">
         <f t="shared" si="7"/>
@@ -8321,11 +8326,11 @@
       </c>
       <c r="C111" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D111" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E111" s="4">
         <f t="shared" si="7"/>
@@ -8342,11 +8347,11 @@
       </c>
       <c r="C112" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D112" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E112" s="4">
         <f t="shared" si="7"/>
@@ -8363,11 +8368,11 @@
       </c>
       <c r="C113" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D113" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E113" s="4">
         <f t="shared" si="7"/>
@@ -8384,11 +8389,11 @@
       </c>
       <c r="C114" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D114" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E114" s="4">
         <f t="shared" si="7"/>
@@ -8405,11 +8410,11 @@
       </c>
       <c r="C115" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D115" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="7"/>
@@ -8426,11 +8431,11 @@
       </c>
       <c r="C116" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D116" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="7"/>
@@ -8447,11 +8452,11 @@
       </c>
       <c r="C117" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D117" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="7"/>
@@ -8468,11 +8473,11 @@
       </c>
       <c r="C118" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D118" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="7"/>
@@ -8489,11 +8494,11 @@
       </c>
       <c r="C119" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D119" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="7"/>
@@ -8510,11 +8515,11 @@
       </c>
       <c r="C120" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D120" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="7"/>
@@ -8531,11 +8536,11 @@
       </c>
       <c r="C121" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D121" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E121" s="4">
         <f t="shared" si="7"/>
@@ -8552,11 +8557,11 @@
       </c>
       <c r="C122" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D122" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" si="7"/>
@@ -8573,11 +8578,11 @@
       </c>
       <c r="C123" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D123" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E123" s="4">
         <f t="shared" si="7"/>
@@ -8594,11 +8599,11 @@
       </c>
       <c r="C124" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D124" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E124" s="4">
         <f t="shared" si="7"/>
@@ -8615,11 +8620,11 @@
       </c>
       <c r="C125" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D125" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E125" s="4">
         <f t="shared" si="7"/>
@@ -8636,11 +8641,11 @@
       </c>
       <c r="C126" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D126" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="7"/>
@@ -8657,11 +8662,11 @@
       </c>
       <c r="C127" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="7"/>
@@ -8678,11 +8683,11 @@
       </c>
       <c r="C128" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="7"/>
@@ -8699,11 +8704,11 @@
       </c>
       <c r="C129" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="7"/>
@@ -8720,11 +8725,11 @@
       </c>
       <c r="C130" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="7"/>
@@ -8741,11 +8746,11 @@
       </c>
       <c r="C131" s="4">
         <f t="shared" si="5"/>
-        <v>1083333.3333333333</v>
+        <v>2000000</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="6"/>
-        <v>1916666.6666666665</v>
+        <v>2833333.3333333335</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="7"/>
